--- a/docs/build_instructions_standard_3D_printed.xlsx
+++ b/docs/build_instructions_standard_3D_printed.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="420" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AED60727-EC51-4D5C-AD93-6CE787C1AF51}"/>
+  <xr:revisionPtr revIDLastSave="424" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B88C0D8-F54D-4CC3-ADBA-54D74CBC6540}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>Female-female jumper wires</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>KY-016 indicator LED (10 pieces)</t>
-  </si>
-  <si>
-    <t>KY-040 rotary encoders (knobs) (5 pieces)</t>
   </si>
   <si>
     <t>#4 x 5/8” flat head wood screws (100 pieces)</t>
@@ -650,10 +647,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -667,7 +664,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -681,7 +678,7 @@
         <v>4.99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -695,7 +692,7 @@
         <v>3.95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -709,7 +706,7 @@
         <v>2.69</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -723,7 +720,7 @@
         <v>4.32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -737,7 +734,7 @@
         <v>4.75</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -751,7 +748,7 @@
         <v>5.6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -765,7 +762,7 @@
         <v>5.89</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -779,7 +776,7 @@
         <v>6.99</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -793,7 +790,7 @@
         <v>7.99</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -807,7 +804,7 @@
         <v>6.75</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -818,7 +815,7 @@
         <v>73.92</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -857,7 +854,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1089,24 +1086,24 @@
     </row>
     <row r="12" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="10">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D12" s="8">
-        <v>2.11</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="0"/>
-        <v>8.44</v>
+        <v>11</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="1"/>
-        <v>0.84399999999999997</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -1158,7 +1155,7 @@
     </row>
     <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>1</v>
@@ -1187,7 +1184,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="12">
         <f>SUM(F5:F15)</f>
-        <v>44.288000000000004</v>
+        <v>44.544000000000004</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>22</v>
@@ -1203,7 +1200,7 @@
     <hyperlink ref="A14" r:id="rId6" display="https://www.amazon.com/SanDisk-16GB-Cruzer-Flash-Drive/dp/B07MDXBT87/ref=sr_1_10?keywords=Cruzer+8GB&amp;qid=1572121525&amp;s=electronics&amp;sr=1-10" xr:uid="{F15FB45E-3203-4F2E-9725-87605B6ECD8B}"/>
     <hyperlink ref="A10" r:id="rId7" xr:uid="{0DC7749B-92C3-4CE4-B5B3-BBC86AC775DE}"/>
     <hyperlink ref="A11" r:id="rId8" display="KY-016 indicator LED" xr:uid="{6A8AA35F-6C88-4BD6-B333-FC1A2CEEC938}"/>
-    <hyperlink ref="A12" r:id="rId9" display="KY-040 rotary encoders (knobs)" xr:uid="{604E82EC-6C86-4D9A-B867-F6A20014797C}"/>
+    <hyperlink ref="A12" r:id="rId9" xr:uid="{604E82EC-6C86-4D9A-B867-F6A20014797C}"/>
     <hyperlink ref="A15" r:id="rId10" display="#4 x 5/8” flat head wood screws" xr:uid="{555FA272-D907-495D-918B-9EB5B537AB54}"/>
     <hyperlink ref="A9" r:id="rId11" display="M2.5 4mm thread + 6mm standoff screws" xr:uid="{28E7540A-6659-42EF-91A1-7D780614554D}"/>
   </hyperlinks>

--- a/docs/build_instructions_standard_3D_printed.xlsx
+++ b/docs/build_instructions_standard_3D_printed.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="424" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B88C0D8-F54D-4CC3-ADBA-54D74CBC6540}"/>
+  <xr:revisionPtr revIDLastSave="438" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E7B81FBE-71FD-4AC7-97F9-C3FBF158D39F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_1" sheetId="7" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>+ tax + shipping</t>
   </si>
   <si>
-    <t>M2.5 4mm thread + 6mm standoff screws (30 pieces)</t>
-  </si>
-  <si>
     <t>KY-016 indicator LED (10 pieces)</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>Or Amazon B06XXV8RTR</t>
   </si>
   <si>
-    <t>Or Amazon B07KJYR8K1. Or search Amazon for KY-016.</t>
-  </si>
-  <si>
     <t>Or Amazon B06XQTHDRR.</t>
   </si>
   <si>
@@ -145,13 +139,19 @@
     <t>Or buy at your local hardware store for less</t>
   </si>
   <si>
-    <t>Or upgrade to Amazon B06XWN9Q99 or any 16GB+ card</t>
-  </si>
-  <si>
-    <t>Or Amazon B077Y149DL or other physically small USB drive</t>
-  </si>
-  <si>
     <t>Or Amazon B00SUIKMJ8 or audio cable with right angle bend</t>
+  </si>
+  <si>
+    <t>Or buy Amazon B06XWN9Q99 or other 16GB+ card</t>
+  </si>
+  <si>
+    <t>Or Amazon B07MDXBT87 or other physically small USB drive</t>
+  </si>
+  <si>
+    <t>M2.5 6mm thread + 6mm standoff screws (100 pieces)</t>
+  </si>
+  <si>
+    <t>This is a large kit of sensors, you only need KY-016. Or search KY-016, but almost all other sellers ship from China.</t>
   </si>
 </sst>
 </file>
@@ -272,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -308,6 +308,9 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -635,7 +638,7 @@
     <col min="1" max="1" width="31.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58.5546875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -647,10 +650,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -664,7 +667,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -678,7 +681,7 @@
         <v>4.99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -692,7 +695,7 @@
         <v>3.95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -706,7 +709,7 @@
         <v>2.69</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -720,7 +723,7 @@
         <v>4.32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -731,10 +734,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="8">
-        <v>4.75</v>
+        <v>4.95</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -745,10 +748,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="8">
-        <v>5.6</v>
+        <v>6.34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -759,13 +762,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="8">
-        <v>5.89</v>
+        <v>5.59</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -773,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="8">
-        <v>6.99</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>17.989999999999998</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -790,7 +793,7 @@
         <v>7.99</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -801,10 +804,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="8">
-        <v>6.75</v>
+        <v>7.3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -812,10 +815,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="16">
         <f>SUM(C2:C12)</f>
-        <v>73.92</v>
+        <v>86.11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -836,13 +839,13 @@
     <hyperlink ref="A4" r:id="rId2" display="http://www.newark.com/adafruit/266/female-to-female-jumper-wires/dp/42X1200" xr:uid="{2CE09758-19BE-4D8E-8428-CAB4CD7682C3}"/>
     <hyperlink ref="A5" r:id="rId3" display="http://www.newark.com/mcm/27-5937/3-5mm-inline-stereo-mount-female/dp/40T6284" xr:uid="{B5CB0BD9-1755-4BCA-82AA-B620DFC77645}"/>
     <hyperlink ref="A6" r:id="rId4" display="https://www.newark.com/raf-electronic-hardware/m2102-2545-al/spacer-standoff-hex-aluminium/dp/27T7975?st=M2.5%20standoff" xr:uid="{F1FA4C82-9DB6-4D44-AEF0-A1FF9DA0D698}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{AE4ABB6F-4B1A-4301-9201-F0BB6B1E4317}"/>
-    <hyperlink ref="A8" r:id="rId6" display="https://www.amazon.com/SanDisk-16GB-Cruzer-Flash-Drive/dp/B07MDXBT87/ref=sr_1_10?keywords=Cruzer+8GB&amp;qid=1572121525&amp;s=electronics&amp;sr=1-10" xr:uid="{D0707C02-1360-4150-A0E9-6A8F9228536A}"/>
-    <hyperlink ref="A9" r:id="rId7" display="https://www.amazon.com/gp/product/B00LM0U8I6/ref=oh_aui_detailpage_o00_s00?ie=UTF8&amp;psc=1" xr:uid="{152A8B79-1A0B-419C-AD64-B530817CE239}"/>
-    <hyperlink ref="A10" r:id="rId8" display="https://www.amazon.com/KY-016-Colors-Sensor-Arduino-Starter/dp/B0786CQD5P/ref=sr_1_1?keywords=KY-016&amp;qid=1572122200&amp;sr=8-1" xr:uid="{ADF5B442-5367-40FF-9B4B-13880D60C0EE}"/>
-    <hyperlink ref="A11" r:id="rId9" display="https://www.amazon.com/Tegg-KY-040-Encoder-clickable-Arduino/dp/B07QL6V4WP/ref=sr_1_11?keywords=KY-040&amp;qid=1572122001&amp;sr=8-11" xr:uid="{0A8CD34F-FEEF-40FD-A451-953534674426}"/>
-    <hyperlink ref="A2" r:id="rId10" display="http://www.newark.com/raspberry-pi/raspbrry-moda-512m/silicon-manufacturer-broadcom/dp/81Y5333" xr:uid="{13786A80-3679-43A9-B8B9-7C75125C477D}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{29969E69-8781-4713-97DB-937DA5838B6A}"/>
+    <hyperlink ref="A9" r:id="rId5" display="https://www.amazon.com/gp/product/B00LM0U8I6/ref=oh_aui_detailpage_o00_s00?ie=UTF8&amp;psc=1" xr:uid="{152A8B79-1A0B-419C-AD64-B530817CE239}"/>
+    <hyperlink ref="A11" r:id="rId6" display="https://www.amazon.com/Tegg-KY-040-Encoder-clickable-Arduino/dp/B07QL6V4WP/ref=sr_1_11?keywords=KY-040&amp;qid=1572122001&amp;sr=8-11" xr:uid="{0A8CD34F-FEEF-40FD-A451-953534674426}"/>
+    <hyperlink ref="A2" r:id="rId7" display="http://www.newark.com/raspberry-pi/raspbrry-moda-512m/silicon-manufacturer-broadcom/dp/81Y5333" xr:uid="{13786A80-3679-43A9-B8B9-7C75125C477D}"/>
+    <hyperlink ref="A12" r:id="rId8" xr:uid="{29969E69-8781-4713-97DB-937DA5838B6A}"/>
+    <hyperlink ref="A7" r:id="rId9" xr:uid="{86CB3587-6F4F-4564-A165-CB7D58DCA6ED}"/>
+    <hyperlink ref="A8" r:id="rId10" xr:uid="{3988F809-8879-47BE-B1D1-441BF3762B39}"/>
+    <hyperlink ref="A10" r:id="rId11" xr:uid="{41FA88E4-9FA7-42FD-B471-4A896F86DB46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
@@ -854,7 +857,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,24 +1020,24 @@
     </row>
     <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" s="8">
-        <v>4.99</v>
+        <v>1.78</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>14.97</v>
+        <v>1.78</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="1"/>
-        <v>1.4970000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -1049,21 +1052,21 @@
         <v>10</v>
       </c>
       <c r="D10" s="8">
-        <v>2.4500000000000002</v>
+        <v>2.69</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>24.5</v>
+        <v>26.9</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="1"/>
-        <v>2.4500000000000002</v>
+        <v>2.69</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>17</v>
@@ -1095,15 +1098,15 @@
         <v>20</v>
       </c>
       <c r="D12" s="8">
-        <v>0.55000000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>14.399999999999999</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -1118,15 +1121,15 @@
         <v>10</v>
       </c>
       <c r="D13" s="8">
-        <v>4.75</v>
+        <v>4.95</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="0"/>
-        <v>47.5</v>
+        <v>49.5</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="1"/>
-        <v>4.75</v>
+        <v>4.95</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -1141,21 +1144,21 @@
         <v>10</v>
       </c>
       <c r="D14" s="8">
-        <v>5.6</v>
+        <v>6.34</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>63.4</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>6.34</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>1</v>
@@ -1164,15 +1167,15 @@
         <v>1</v>
       </c>
       <c r="D15" s="8">
-        <v>6.75</v>
+        <v>7.3</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" ref="E15" si="2">C15*D15</f>
-        <v>6.75</v>
+        <v>7.3</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" ref="F15" si="3">E15/$B$2</f>
-        <v>0.67500000000000004</v>
+        <v>0.73</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -1184,7 +1187,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="12">
         <f>SUM(F5:F15)</f>
-        <v>44.544000000000004</v>
+        <v>44.800000000000004</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>22</v>
@@ -1194,15 +1197,15 @@
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="http://www.newark.com/raspberry-pi/raspbrry-moda-512m/silicon-manufacturer-broadcom/dp/81Y5333" xr:uid="{1BFBFBD1-4E41-4D41-B4BF-DE82F6FFA9D9}"/>
     <hyperlink ref="A6" r:id="rId2" display="http://www.mcmelectronics.com/product/28-19338" xr:uid="{65D287F0-F3C5-4BFC-B0EB-927314E9D7BC}"/>
-    <hyperlink ref="A8" r:id="rId3" xr:uid="{4719F56A-F53F-4C54-AB15-D0404FA4C1F5}"/>
-    <hyperlink ref="A7" r:id="rId4" display="http://www.newark.com/mcm/27-5937/3-5mm-inline-stereo-mount-female/dp/40T6284" xr:uid="{EF83C615-A1D4-4987-BEAB-3BBEDC648166}"/>
-    <hyperlink ref="A13" r:id="rId5" xr:uid="{2A497A6C-5AAE-4A0E-8C0E-F12EF4CC82A4}"/>
-    <hyperlink ref="A14" r:id="rId6" display="https://www.amazon.com/SanDisk-16GB-Cruzer-Flash-Drive/dp/B07MDXBT87/ref=sr_1_10?keywords=Cruzer+8GB&amp;qid=1572121525&amp;s=electronics&amp;sr=1-10" xr:uid="{F15FB45E-3203-4F2E-9725-87605B6ECD8B}"/>
-    <hyperlink ref="A10" r:id="rId7" xr:uid="{0DC7749B-92C3-4CE4-B5B3-BBC86AC775DE}"/>
-    <hyperlink ref="A11" r:id="rId8" display="KY-016 indicator LED" xr:uid="{6A8AA35F-6C88-4BD6-B333-FC1A2CEEC938}"/>
-    <hyperlink ref="A12" r:id="rId9" xr:uid="{604E82EC-6C86-4D9A-B867-F6A20014797C}"/>
-    <hyperlink ref="A15" r:id="rId10" display="#4 x 5/8” flat head wood screws" xr:uid="{555FA272-D907-495D-918B-9EB5B537AB54}"/>
-    <hyperlink ref="A9" r:id="rId11" display="M2.5 4mm thread + 6mm standoff screws" xr:uid="{28E7540A-6659-42EF-91A1-7D780614554D}"/>
+    <hyperlink ref="A7" r:id="rId3" display="http://www.newark.com/mcm/27-5937/3-5mm-inline-stereo-mount-female/dp/40T6284" xr:uid="{EF83C615-A1D4-4987-BEAB-3BBEDC648166}"/>
+    <hyperlink ref="A15" r:id="rId4" display="#4 x 5/8” flat head wood screws" xr:uid="{555FA272-D907-495D-918B-9EB5B537AB54}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{7E38EF0B-DBF9-4090-82A8-BC1770B14499}"/>
+    <hyperlink ref="A9" r:id="rId6" display="M2.5 6mm thread + 6mm standoff screws (30 pieces)" xr:uid="{50C45DBC-A02A-40E9-9FA7-41C613E4C17E}"/>
+    <hyperlink ref="A13" r:id="rId7" xr:uid="{DB17370E-88FA-4D1C-857C-8369B7385895}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{30B4B4A4-07DA-41D7-BED6-888D5B1C2AB4}"/>
+    <hyperlink ref="A11" r:id="rId9" display="KY-016 indicator LED" xr:uid="{4342BEBF-C297-4273-9076-7D76A1585CC2}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{7EA5AFF0-A217-49D2-9F41-3EA4FBEC6932}"/>
+    <hyperlink ref="A14" r:id="rId11" xr:uid="{96A80614-300C-4C33-884C-DF74A380D4B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>

--- a/docs/build_instructions_standard_3D_printed.xlsx
+++ b/docs/build_instructions_standard_3D_printed.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="438" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E7B81FBE-71FD-4AC7-97F9-C3FBF158D39F}"/>
+  <xr:revisionPtr revIDLastSave="439" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5807484-1FCA-4D08-AE3C-2A340F0938C9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_1" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>Female-female jumper wires</t>
   </si>
@@ -151,7 +151,10 @@
     <t>M2.5 6mm thread + 6mm standoff screws (100 pieces)</t>
   </si>
   <si>
-    <t>This is a large kit of sensors, you only need KY-016. Or search KY-016, but almost all other sellers ship from China.</t>
+    <t>Banggood</t>
+  </si>
+  <si>
+    <t>ALLOW 3+ WEEKS TO ARRIVE FROM CHINA. Due to COVID, it's hard to find these in the US. You can get it quickly from Amazon B07KJYR8K1, but costs $18.</t>
   </si>
 </sst>
 </file>
@@ -629,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E12D50-D309-4C94-883F-34F0FBB95462}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,13 +776,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C10" s="8">
-        <v>17.989999999999998</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -815,7 +818,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="16">
         <f>SUM(C2:C12)</f>
-        <v>86.11</v>
+        <v>72.39</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>33</v>
@@ -845,7 +848,7 @@
     <hyperlink ref="A12" r:id="rId8" xr:uid="{29969E69-8781-4713-97DB-937DA5838B6A}"/>
     <hyperlink ref="A7" r:id="rId9" xr:uid="{86CB3587-6F4F-4564-A165-CB7D58DCA6ED}"/>
     <hyperlink ref="A8" r:id="rId10" xr:uid="{3988F809-8879-47BE-B1D1-441BF3762B39}"/>
-    <hyperlink ref="A10" r:id="rId11" xr:uid="{41FA88E4-9FA7-42FD-B471-4A896F86DB46}"/>
+    <hyperlink ref="A10" r:id="rId11" xr:uid="{8B63D22D-F370-42DE-BC61-7590FF589804}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
@@ -856,8 +859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD35BB53-6D32-4D96-AF53-91579E0632D6}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/docs/build_instructions_standard_3D_printed.xlsx
+++ b/docs/build_instructions_standard_3D_printed.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="439" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5807484-1FCA-4D08-AE3C-2A340F0938C9}"/>
+  <xr:revisionPtr revIDLastSave="459" documentId="415E32CF7F9D79DA378485C62B6EEDB6DC1C7F04" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CF878C0F-F73A-43D8-9F30-89CDACA1150B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_1" sheetId="7" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>16GB micro SD card</t>
-  </si>
-  <si>
     <t>#4 x 5/8” flat head wood screws</t>
   </si>
   <si>
@@ -155,6 +152,9 @@
   </si>
   <si>
     <t>ALLOW 3+ WEEKS TO ARRIVE FROM CHINA. Due to COVID, it's hard to find these in the US. You can get it quickly from Amazon B07KJYR8K1, but costs $18.</t>
+  </si>
+  <si>
+    <t>16GB+ micro SD card</t>
   </si>
 </sst>
 </file>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0E12D50-D309-4C94-883F-34F0FBB95462}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,10 +653,10 @@
         <v>12</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -684,7 +684,7 @@
         <v>4.99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -698,7 +698,7 @@
         <v>3.95</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -712,7 +712,7 @@
         <v>2.69</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -723,15 +723,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="8">
-        <v>4.32</v>
+        <f>0.89*8</f>
+        <v>7.12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>1</v>
@@ -740,7 +741,7 @@
         <v>4.95</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -751,10 +752,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="8">
-        <v>6.34</v>
+        <v>7.19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -765,10 +766,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="8">
-        <v>5.59</v>
+        <v>6.59</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -776,13 +777,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="C10" s="8">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -796,12 +797,12 @@
         <v>7.99</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>1</v>
@@ -810,7 +811,7 @@
         <v>7.3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
@@ -818,10 +819,10 @@
       <c r="B13" s="3"/>
       <c r="C13" s="16">
         <f>SUM(C2:C12)</f>
-        <v>72.39</v>
+        <v>77.38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -838,7 +839,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="http://www.mcmelectronics.com/product/28-19338" xr:uid="{F1D856E2-A362-406F-AEE5-44CD93F13CDC}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{F1D856E2-A362-406F-AEE5-44CD93F13CDC}"/>
     <hyperlink ref="A4" r:id="rId2" display="http://www.newark.com/adafruit/266/female-to-female-jumper-wires/dp/42X1200" xr:uid="{2CE09758-19BE-4D8E-8428-CAB4CD7682C3}"/>
     <hyperlink ref="A5" r:id="rId3" display="http://www.newark.com/mcm/27-5937/3-5mm-inline-stereo-mount-female/dp/40T6284" xr:uid="{B5CB0BD9-1755-4BCA-82AA-B620DFC77645}"/>
     <hyperlink ref="A6" r:id="rId4" display="https://www.newark.com/raf-electronic-hardware/m2102-2545-al/spacer-standoff-hex-aluminium/dp/27T7975?st=M2.5%20standoff" xr:uid="{F1FA4C82-9DB6-4D44-AEF0-A1FF9DA0D698}"/>
@@ -846,7 +847,7 @@
     <hyperlink ref="A11" r:id="rId6" display="https://www.amazon.com/Tegg-KY-040-Encoder-clickable-Arduino/dp/B07QL6V4WP/ref=sr_1_11?keywords=KY-040&amp;qid=1572122001&amp;sr=8-11" xr:uid="{0A8CD34F-FEEF-40FD-A451-953534674426}"/>
     <hyperlink ref="A2" r:id="rId7" display="http://www.newark.com/raspberry-pi/raspbrry-moda-512m/silicon-manufacturer-broadcom/dp/81Y5333" xr:uid="{13786A80-3679-43A9-B8B9-7C75125C477D}"/>
     <hyperlink ref="A12" r:id="rId8" xr:uid="{29969E69-8781-4713-97DB-937DA5838B6A}"/>
-    <hyperlink ref="A7" r:id="rId9" xr:uid="{86CB3587-6F4F-4564-A165-CB7D58DCA6ED}"/>
+    <hyperlink ref="A7" r:id="rId9" display="16GB micro SD card" xr:uid="{86CB3587-6F4F-4564-A165-CB7D58DCA6ED}"/>
     <hyperlink ref="A8" r:id="rId10" xr:uid="{3988F809-8879-47BE-B1D1-441BF3762B39}"/>
     <hyperlink ref="A10" r:id="rId11" xr:uid="{8B63D22D-F370-42DE-BC61-7590FF589804}"/>
   </hyperlinks>
@@ -859,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD35BB53-6D32-4D96-AF53-91579E0632D6}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1024,7 @@
     </row>
     <row r="9" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>17</v>
@@ -1032,15 +1033,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="8">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="1"/>
-        <v>0.17799999999999999</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -1055,21 +1056,21 @@
         <v>10</v>
       </c>
       <c r="D10" s="8">
-        <v>2.69</v>
+        <v>2.79</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>26.9</v>
+        <v>27.9</v>
       </c>
       <c r="F10" s="8">
         <f t="shared" si="1"/>
-        <v>2.69</v>
+        <v>2.79</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>17</v>
@@ -1115,7 +1116,7 @@
     </row>
     <row r="13" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>1</v>
@@ -1124,15 +1125,15 @@
         <v>10</v>
       </c>
       <c r="D13" s="8">
-        <v>4.95</v>
+        <v>7.48</v>
       </c>
       <c r="E13" s="8">
         <f t="shared" si="0"/>
-        <v>49.5</v>
+        <v>74.800000000000011</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" si="1"/>
-        <v>4.95</v>
+        <v>7.4800000000000013</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -1147,21 +1148,21 @@
         <v>10</v>
       </c>
       <c r="D14" s="8">
-        <v>6.34</v>
+        <v>7.19</v>
       </c>
       <c r="E14" s="8">
         <f t="shared" si="0"/>
-        <v>63.4</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="F14" s="8">
         <f t="shared" si="1"/>
-        <v>6.34</v>
+        <v>7.19</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>1</v>
@@ -1190,16 +1191,16 @@
       <c r="E16" s="3"/>
       <c r="F16" s="12">
         <f>SUM(F5:F15)</f>
-        <v>44.800000000000004</v>
+        <v>48.300000000000004</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="http://www.newark.com/raspberry-pi/raspbrry-moda-512m/silicon-manufacturer-broadcom/dp/81Y5333" xr:uid="{1BFBFBD1-4E41-4D41-B4BF-DE82F6FFA9D9}"/>
-    <hyperlink ref="A6" r:id="rId2" display="http://www.mcmelectronics.com/product/28-19338" xr:uid="{65D287F0-F3C5-4BFC-B0EB-927314E9D7BC}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{65D287F0-F3C5-4BFC-B0EB-927314E9D7BC}"/>
     <hyperlink ref="A7" r:id="rId3" display="http://www.newark.com/mcm/27-5937/3-5mm-inline-stereo-mount-female/dp/40T6284" xr:uid="{EF83C615-A1D4-4987-BEAB-3BBEDC648166}"/>
     <hyperlink ref="A15" r:id="rId4" display="#4 x 5/8” flat head wood screws" xr:uid="{555FA272-D907-495D-918B-9EB5B537AB54}"/>
     <hyperlink ref="A8" r:id="rId5" xr:uid="{7E38EF0B-DBF9-4090-82A8-BC1770B14499}"/>
